--- a/Marketing/tamu.roomme.xlsx
+++ b/Marketing/tamu.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">

--- a/Marketing/tamu.roomme.xlsx
+++ b/Marketing/tamu.roomme.xlsx
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">

--- a/Marketing/tamu.roomme.xlsx
+++ b/Marketing/tamu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B843"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>biancagarci.a</t>
+          <t>lyndee.lambert</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tx_jxvxnxl</t>
+          <t>trev_thomas5</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>maevewallacee</t>
+          <t>gtxnathanwilson</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>elianna.charlie</t>
+          <t>mounir.fred_</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>the.real.squeaker</t>
+          <t>averydeli</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>haley_pennock1</t>
+          <t>sensitarianallstar</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>chloebrooke04</t>
+          <t>the.real.squeaker</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>brettchampagne2</t>
+          <t>gigemparties</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dmills_ky08</t>
+          <t>iranly01</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hayden.allison23</t>
+          <t>citlalitlguevara</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>madigurley_</t>
+          <t>tatum_.mckinney</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dianaromadinaa</t>
+          <t>ben_pactanac</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>janssen8031</t>
+          <t>anastasia_c_sutton05</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nancyaanderson</t>
+          <t>kenzieleighsims</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>alyssaahdz05</t>
+          <t>cristal.valenc</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jxhnner_32</t>
+          <t>alexandramarie_11</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>_elizamills</t>
+          <t>lauren.matlock</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>carajoyjoyjoy</t>
+          <t>julia_machacek</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>kaydenced1020</t>
+          <t>taryn_mac_h</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>anna_mcclendon_</t>
+          <t>naomi.dallal</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>creative.clarity.cut.color.htx</t>
+          <t>kalyanidwaraka</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>roxbenjac</t>
+          <t>leilaarene._</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>aaron.0810</t>
+          <t>bella.0028</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hinadipan</t>
+          <t>angelica_.mina</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ellaowenss</t>
+          <t>mary_jey1000</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>soscottoncandy</t>
+          <t>kendyl.r.smith</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kristenharris1</t>
+          <t>miagracemoore_</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>matthewski_24</t>
+          <t>sir_newton95</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>kaayla_rrr</t>
+          <t>somil7547</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>usha.chowdhury_austin</t>
+          <t>fyejillian</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>owenstachlik</t>
+          <t>weston._borich</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>allinyanas</t>
+          <t>melbowman73</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>madi_b_ingrammm</t>
+          <t>roxbenjac</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>jkcox1</t>
+          <t>alitersandra</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rocrobison</t>
+          <t>calin_ovi</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>datra_q</t>
+          <t>lichitacookies</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>isaac.stew3</t>
+          <t>cristina.castro13</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>theway_iabc</t>
+          <t>amj.jacoby</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>nehakawane_28</t>
+          <t>kjade_05</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>julius_santos6</t>
+          <t>carrie.weast</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gassycarryguy</t>
+          <t>paytontyner_</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>cxzdani</t>
+          <t>avery.schumann</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>dariussimmonsjr_</t>
+          <t>willowdawn73</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cole.turner07</t>
+          <t>emmaeckelberg_</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>biersch_wale</t>
+          <t>oreonat888</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>s.kyu_0816</t>
+          <t>emma_lynn_miller</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jdagcarroll</t>
+          <t>holidorm_</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>alexisblotner</t>
+          <t>misslennav_13</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rociosalgado04</t>
+          <t>maya.lynn.f</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>miagracemoore_</t>
+          <t>its_bry.gomez.2004</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>_lacymacdonald</t>
+          <t>kgarza546</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>potato_noahhh</t>
+          <t>cj_lonestar_76528</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sydbholland</t>
+          <t>quickdraw_reid4</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>afb.brewer</t>
+          <t>blondebyemilie</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>katherine.ato</t>
+          <t>notalexisrs</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>seth._.lucas</t>
+          <t>diana.s_dive04</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>petru.emma</t>
+          <t>lybaamaro</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>steinbeck.vivian</t>
+          <t>aesthetic_arroz</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>austin_jumps1</t>
+          <t>abbi_skye04</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>oscarcolchado_</t>
+          <t>muffin_zara_</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>sporty_kayla</t>
+          <t>ashleysherk</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>bigtime.bran</t>
+          <t>averycarriee</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>rubymay597</t>
+          <t>inksplash_draws</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>agnes.william_</t>
+          <t>burrowshirley</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>dakidyallleftout</t>
+          <t>carmelolch</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>landryhill</t>
+          <t>typod15</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>chris.horstman</t>
+          <t>andy.mills.0917</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>smoothie_deedee_</t>
+          <t>quesarah_sarah_m</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>citlalitlguevara</t>
+          <t>james_w_cardon</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>melindasmith7422</t>
+          <t>james.schr05</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>aggiebucketlist</t>
+          <t>jesuferanmiayanlade</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>foodie_steph_123x</t>
+          <t>yaminihari76</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>connor_ballinger_</t>
+          <t>_lacymacdonald</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>killingitwithkilgore</t>
+          <t>marti.z3</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>rican.ssppaamm</t>
+          <t>olivia.hagstrom</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>umiami.2028</t>
+          <t>james_eade123</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mounir.fred_</t>
+          <t>stephaniehildrichardson</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>aubdoobie</t>
+          <t>conner_meyer5</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ridgedaniel_</t>
+          <t>hareshmenonn</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>lukecheatham</t>
+          <t>_daniellee19_</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mastereth_man</t>
+          <t>_jessilynn711__</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>angiembrea_</t>
+          <t>gr.acie.b</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>leo.s_14</t>
+          <t>michellegriselldelgado</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>shawn_.a17</t>
+          <t>julia.m.murphyy</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>seniors.shoutouts</t>
+          <t>bellaj5060</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>_marisol327</t>
+          <t>greeshma.lakka</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sowmith.b</t>
+          <t>danettadrew</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>bcsaxehouse</t>
+          <t>cassishwo</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>heatherjulia75</t>
+          <t>fernando.hinojosa4</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nellie_brittan</t>
+          <t>kitsy1967</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>kobinjikobingi</t>
+          <t>danielleequale</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>oliviarhaun</t>
+          <t>_molly_quin</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>redpearfelipe</t>
+          <t>maciewim</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>dazha.cooper</t>
+          <t>fatimaescurraa</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>sleeperchoong</t>
+          <t>kyliee.11</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>amanda.tofel</t>
+          <t>jeff_hurst50</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>jackrlower25</t>
+          <t>mackharris351</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>_lolascrafts</t>
+          <t>cherrybomb12_34</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ashleysherk</t>
+          <t>rachel.falbo</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rmaewalk</t>
+          <t>_marisol.22</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>cesar.hinojosa21</t>
+          <t>sarahmurray24_</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>camillle_b</t>
+          <t>anna_mcclendon_</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>kendallreding</t>
+          <t>steele.rodriguez</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>vic._tori.aa</t>
+          <t>acbullock</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>laurenbelk</t>
+          <t>anthonymrijken</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>fitzzzywitzzzy</t>
+          <t>_jodie_lest</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ymkoether</t>
+          <t>sophiewaless</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>owenmahon0</t>
+          <t>kobinjikobingi</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>fatherpatty</t>
+          <t>rosieyalfredo</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>halliebures</t>
+          <t>davsjohnson</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>mmekaylmalik</t>
+          <t>halliebures</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>marissa___martinez</t>
+          <t>grace_kp02</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>mason_zavodnyy</t>
+          <t>damiannnn_espinoza</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>7_gator_42_82</t>
+          <t>royalblackqueen</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>typod15</t>
+          <t>janella_b_exclusively</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>becintex</t>
+          <t>cfrancis1220</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>cadencelonggg</t>
+          <t>puravdatta</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>maxfieldanna</t>
+          <t>jr.avery_</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ariela.kluk</t>
+          <t>em.ma.a_</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>w_murray_</t>
+          <t>samsammy184</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>joshua.c_04</t>
+          <t>its_alex.2004</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>jsaenz.05</t>
+          <t>kamilagrossi</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>elchanangeller</t>
+          <t>jaydp1138</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>rupal0007</t>
+          <t>peyton.jace</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>miranda_holloway</t>
+          <t>madi.perkinss</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>treywaller92</t>
+          <t>_kallieclark</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>danielleequale</t>
+          <t>cxzdani</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>tiannamilesss</t>
+          <t>the_reyno</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>nanyalyer</t>
+          <t>jumanaaa.a</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>nboy</t>
+          <t>alex.zanca</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>chancebanner</t>
+          <t>biancaace</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>miahnafallentine</t>
+          <t>crispdosa</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>johnskidmore_</t>
+          <t>jackrlower25</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>drew.dearmond</t>
+          <t>s.kyu_0816</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>kerk6193</t>
+          <t>sportoonified</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ella.danica.05</t>
+          <t>andie.j_</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>carolyn.c.davis.10</t>
+          <t>sydneyvanc</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>masonbinz12</t>
+          <t>danahle</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>benitobox8</t>
+          <t>lilianadunn__</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>rizwan.s_</t>
+          <t>_gavinbell</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,407 +1848,407 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>edward_millard4</t>
+          <t>nellie_brittan</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>nicholas__nottoli</t>
+          <t>mayapapayayanes</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>cooper_cannonn</t>
+          <t>aprilleatherwood1</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>treveshyde</t>
+          <t>katianeto299</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>lk.rowe</t>
+          <t>aspirinaaaaa</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>nikkitx312</t>
+          <t>samantha.siptak</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>graaceharris_</t>
+          <t>chanel_correa</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>wesleyhumphrey10</t>
+          <t>brianadelagarzaa</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>leandra_jepsen</t>
+          <t>kennedy_ritz</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>aubreystone22</t>
+          <t>danperez44</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>rubyacharya2</t>
+          <t>vivianagarciiia</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>felix_mucee</t>
+          <t>lizken95</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>holistic.dentalhygienius</t>
+          <t>alexisblotner</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ashlynn_howell</t>
+          <t>jennking.2019</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>julia.g.marrow</t>
+          <t>an.naf05</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>hunter.jp05</t>
+          <t>kathryn.speed</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>andrewstucker24</t>
+          <t>ashleyheer_</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>olivia._.lesette</t>
+          <t>angela_hardwick</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>jennicaraeb</t>
+          <t>elijah.renteria7</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>dleehy.17</t>
+          <t>_solangeemokpae_</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>kenguyeny</t>
+          <t>cambell.scout</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>they_hate_yari</t>
+          <t>brookecoufal</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>its_alex.2004</t>
+          <t>joshuapar.htx</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>amelialdare</t>
+          <t>chidi.onwu</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>_bronsonhall</t>
+          <t>laniedruallen</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>anshul.gulati_</t>
+          <t>emilygrace_garzaaa</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>biancaace</t>
+          <t>sariahcruz_14</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>gtxnathanwilson</t>
+          <t>samanthakolts</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>glow_galveston</t>
+          <t>lousgigemgifts</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sgallun</t>
+          <t>ktst72</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>aleka.kuo</t>
+          <t>froschjolie</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>lybaamaro</t>
+          <t>kinsleym.b</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>jadexchapman</t>
+          <t>hopee.adamss</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>advancementleague</t>
+          <t>seniors.shoutouts</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>elizadchristian</t>
+          <t>motocrossmark</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>jademonk_</t>
+          <t>kk_hari4</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>_jessilynn711__</t>
+          <t>kaelyn_bray</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>gillian.childs</t>
+          <t>ellaaagreen</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>jaylacriss</t>
+          <t>vel.shee</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>marfy__tucker</t>
+          <t>wowwwwwwwwwww728</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>colevest.lifts</t>
+          <t>thomas_sellnau</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>nevarage23</t>
+          <t>miahnafallentine</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>all.madlow</t>
+          <t>beanerblast</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>rowan.rodriguez</t>
+          <t>sydney_noojin</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>lauren.harrison.05</t>
+          <t>ashleyrichmond_05</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>tamustuact</t>
+          <t>may_s0101</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>jacksonwright04</t>
+          <t>feligeh</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>hannah_is_not_a_banana</t>
+          <t>reesebilledo</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>sir_newton95</t>
+          <t>ecplz5</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>anshikachourey</t>
+          <t>jess.catherin</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>olivia.hagstrom</t>
+          <t>catherine_pfaffenberger</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>lanesalty_27</t>
+          <t>allie.southall</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tamuartsci</t>
+          <t>cesar.hinojosa21</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>peyton.presnall</t>
+          <t>kasiehamman</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>harrisdar__</t>
+          <t>emileyxlane</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ivancardena5</t>
+          <t>gw.fishing</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ethanco314</t>
+          <t>afb.brewer</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>mindyrcollins</t>
+          <t>brookeaveryelmore</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>dowerpowell</t>
+          <t>tay1ormurphy</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>brendan_pajak3</t>
+          <t>varshini__.m</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ava.lightfoot</t>
+          <t>kimberlyv1605</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>arizolimachadosiqueira</t>
+          <t>angelinarivvera</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>rishabh_verma112</t>
+          <t>andrewwood3424</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>4339elsie</t>
+          <t>linan_scott</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>samantha.a.ruiz</t>
+          <t>emily.marie.22</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>william_johnson6736</t>
+          <t>luke_laudeman</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>madeleine.meece</t>
+          <t>lauryn_dex</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>allenlettycater</t>
+          <t>holistic.dentalhygienius</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>lanaura</t>
+          <t>jsaenz.05</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>kehaan01</t>
+          <t>_halle.grace_</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>rebeckyh81</t>
+          <t>cam.pbg</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>kaelyn_bray</t>
+          <t>denise_dylaney</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>lemen.taart</t>
+          <t>nboy</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>texasam.froomie</t>
+          <t>karlyrlaughley</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>tm_kavin</t>
+          <t>dmills_ky08</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>obi1kenobi13</t>
+          <t>bhaktiipa</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>samwhend</t>
+          <t>sheenamcdaniel</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>kay.dohhh</t>
+          <t>sidharth.kammili</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>karissaginnetteg</t>
+          <t>logan.prichard</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>andy.mills.0917</t>
+          <t>brinley.jetton</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>royalblackqueen</t>
+          <t>seastley</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>abdullahmehmood._</t>
+          <t>dr._adterry</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>tamuphisigmarho</t>
+          <t>alexa.brinkman</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>oliviaa_glass</t>
+          <t>unclesammywammy</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>grrrr.amaya</t>
+          <t>miranda_holloway</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>katianeto299</t>
+          <t>nancyaanderson</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>kristteennn</t>
+          <t>chris777771</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>tiktoksofthedays</t>
+          <t>h3nr7_b</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>marifer.jacobo2</t>
+          <t>sofiehogann</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>tjseibert128</t>
+          <t>villafranco_04</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>jaytonthill</t>
+          <t>ellaa.flowers</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>kenadeelee05</t>
+          <t>petah_balozi</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>_nelly.williams_</t>
+          <t>yukio177</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>milinshah2016</t>
+          <t>_lolascrafts</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jian_manoli8</t>
+          <t>macho.gorilla.moviestar</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>rayebreaux</t>
+          <t>masonbpiper</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>wowwwwwwwwwww728</t>
+          <t>delaneyrnash</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>belindabault</t>
+          <t>_suziegonzales_</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_gavinbell</t>
+          <t>bellaa.jadeee</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jingchun347</t>
+          <t>raaedf40</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>tamurwfm</t>
+          <t>mindygarcia904</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>mia.kloeber</t>
+          <t>e.mgarza</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>calmakins19_</t>
+          <t>samuel_c_white</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>chloeec123</t>
+          <t>riley_m_wood</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>_halle.grace_</t>
+          <t>madelineashall</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>jalen_bowers8</t>
+          <t>mayraguel05</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ellie_cummings27</t>
+          <t>thereal_jmoore_</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>sidharth.kammili</t>
+          <t>sarahkmitchell_</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>matthew.murphy2</t>
+          <t>amy.f.hammond</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>lucy_lunsford</t>
+          <t>jamielynncheak</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>rylee_hawkins</t>
+          <t>4339elsie</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>_mccomb_</t>
+          <t>kyleparker23456</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>cherrybomb12_34</t>
+          <t>savannah.ghormley</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>sportoonified</t>
+          <t>tamurwfm</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>jackson_steele2005</t>
+          <t>nay91</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>mcneilllindsey</t>
+          <t>juanpalomo04</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>aashleeochoa</t>
+          <t>teresa_giosmom</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>sarahmurray24_</t>
+          <t>paysonhicks</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>samiha_isl</t>
+          <t>rreidrobertson</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>veronicacastaneda754</t>
+          <t>autumnhurta</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ansoderquist</t>
+          <t>edward_millard4</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>808.mekhi</t>
+          <t>amy_mccune12</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>askua1750</t>
+          <t>t45_alejandro</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>juanpalomo04</t>
+          <t>meagan.2904</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>mckinleygwilson</t>
+          <t>sydneymessersmith_13</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>michael_rodriguez_561</t>
+          <t>yxng_guppy</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>alexaace_</t>
+          <t>alex_gonzalez_569</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>regan.16</t>
+          <t>luisa_0417</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>kendall.pruitt</t>
+          <t>hannahjmchang</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>villafranco_04</t>
+          <t>zumacum</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>jaydp1138</t>
+          <t>rebeckyh81</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>crispdosa</t>
+          <t>emiliano_aldaco21</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>tamu_maroonbase</t>
+          <t>bella.sanjy</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>gracelovescows27</t>
+          <t>mm0rgan.k</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>tydes_alleyiv</t>
+          <t>audreyreese_14</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jasminnee.8</t>
+          <t>kat_grabi</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>_shayallen</t>
+          <t>lelecmelo</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>marryhouston5</t>
+          <t>akaggie</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>julia_machacek</t>
+          <t>calihindes</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>nikki_t27</t>
+          <t>akeldakate</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>lisawalkertwzoghfael</t>
+          <t>sydney.novelli</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>quickdraw_reid4</t>
+          <t>beth15any</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>kira.lynn23</t>
+          <t>hopelizabeth__</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>sonoraday</t>
+          <t>madigurley_</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>olivia_marek</t>
+          <t>chloe_anncar</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>samaykrathod</t>
+          <t>pat_inlove</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>devgarrison_</t>
+          <t>shanerayehawkins</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>schreiber.abby</t>
+          <t>ymkoether</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>tay_cole2</t>
+          <t>kemp_makayla</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>sona240940</t>
+          <t>jimraybould</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>andrewwood3424</t>
+          <t>mal.makenna</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>josemateoordonez</t>
+          <t>madelyn_wagner04</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>averycarriee</t>
+          <t>benitobox8</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>_jakegooch</t>
+          <t>sgallun</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ethanknutsen</t>
+          <t>sky.younggg</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>dezzi_r</t>
+          <t>txgirl4life03</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>allen_ferno</t>
+          <t>jake_snider_12</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>charles.leowe</t>
+          <t>arya_k_456</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>marisaadamez</t>
+          <t>jackson_steele2005</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>reagan.dodsonn</t>
+          <t>austin_boyle18</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>captavalk</t>
+          <t>rubymay597</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>brookecoufal</t>
+          <t>_liliana_de_</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>misslennav_13</t>
+          <t>sami.tor.39</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>acam20500</t>
+          <t>k_kkristin</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>npmarquess</t>
+          <t>kylei.anne</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>shyzam23</t>
+          <t>sonoraday</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>taylorpeak2021</t>
+          <t>kevinvonnacher</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>_robbinsbrock</t>
+          <t>nique_gee</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>kimberlyfosscfp</t>
+          <t>ridgedaniel_</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ty_combs11</t>
+          <t>piozetas</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>riley.hunsucker</t>
+          <t>lauren.cita_577</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>kinleyrae1405</t>
+          <t>delta_becks</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ellaa.flowers</t>
+          <t>_avinour</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>kyleparker23456</t>
+          <t>evebrogger</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>prestonvaldez_</t>
+          <t>allinyanas</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>mmackenzieholmes</t>
+          <t>arianaaa400</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>jeremy_macias16</t>
+          <t>_nelly.williams_</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>noahgarciastandlee</t>
+          <t>dia_afghanx</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>dmacwx</t>
+          <t>allenlettycater</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>jenna.l.waldrop</t>
+          <t>marki_was_here</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>awok.thehunter</t>
+          <t>spencerwagner_</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>lori.moores</t>
+          <t>_sydslay</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>kynziewallace</t>
+          <t>lifeinthebergenlane</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>victoria.combest</t>
+          <t>addison__gomez</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>kendallblawrence</t>
+          <t>jeremy_macias16</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ellakatepriest_</t>
+          <t>kaoutherdh3</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>erick_2003_htx</t>
+          <t>julianasmart</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>gw.fishing</t>
+          <t>askua1750</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>pranamya.pagedar_</t>
+          <t>maddie_.calhoun</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>mary_jey1000</t>
+          <t>jxhnner_32</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>shararryan</t>
+          <t>henry.smith.27</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>lucy.f.duncan</t>
+          <t>sydbholland</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>savannah.ghormley</t>
+          <t>allen_ferno</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>willowdawn73</t>
+          <t>_brynnmorrison</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>pippi_timp</t>
+          <t>mrs_may_may_</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>varshini.artham</t>
+          <t>jessica.c.nunnery</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>carsyn.siske</t>
+          <t>loser_12_</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>malayna_mcdaniel_13</t>
+          <t>vineyard.sarah</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>texas_hunter_74</t>
+          <t>cooper_cannonn</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>justaustin.s</t>
+          <t>dakidyallleftout</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>_suziegonzales_</t>
+          <t>jingchun347</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>_sydslay</t>
+          <t>bekah_cummings</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>pty_kenzie4</t>
+          <t>justaustin.s</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>kaoutherdh3</t>
+          <t>sethstotts777</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>emiliano_lopez12</t>
+          <t>jackiee_pinkk</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>trishdew</t>
+          <t>katherine.ato</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>mayraguel05</t>
+          <t>anshikachourey</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>savannah.0.sullivan</t>
+          <t>sireesha_p05</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>akeldakate</t>
+          <t>jasminnee.8</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>jacksondusbabek</t>
+          <t>_elizamills</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>robert.hargrove_</t>
+          <t>carlyyjordan</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>emmaeckelberg_</t>
+          <t>tymashov_v</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>seshadithy.a</t>
+          <t>ethan_real6428</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>jules_e_g</t>
+          <t>gunnerslove02</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>always._.saucy._</t>
+          <t>hayleyylucario</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>weston._borich</t>
+          <t>amryjk7</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>hhhilaryyy_</t>
+          <t>robert_cochrum</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>sanaa.naciri</t>
+          <t>haley_pennock1</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ktst72</t>
+          <t>madison._.mckinney</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>turnerjohnson1882</t>
+          <t>n_vargas.04</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>samika.gandhi</t>
+          <t>brooklynsparkss</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ciannadanee</t>
+          <t>kate.anne.bryant</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>sydney_noojin</t>
+          <t>dleehy.17</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>muffin_zara_</t>
+          <t>dowerpowell</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>seetu</t>
+          <t>srt.slime422</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>_allison.brewer</t>
+          <t>kehaan01</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>grady.ault</t>
+          <t>abbyy.llee</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>piozetas</t>
+          <t>brianna.siddall</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>lukeee.06.vdm</t>
+          <t>aavery.deyoung</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>_liliana_de_</t>
+          <t>michaelrodzfinsta</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>christian.tiera</t>
+          <t>laurenbelk</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>nobi_mahmud</t>
+          <t>kateejakoby</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>fyejillian</t>
+          <t>marifer.jacobo2</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>distasteful_will</t>
+          <t>tm_kavin</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>malliebspikes</t>
+          <t>nikki_t27</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>toni_h77</t>
+          <t>riley_bohl3</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>julia.m.murphyy</t>
+          <t>dungadollar</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>autumnhurta</t>
+          <t>thatguy_buben</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>emily_e_25</t>
+          <t>magenbrotemarkle</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>beanerblast</t>
+          <t>ella.danica.05</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>_daniellee19_</t>
+          <t>sarahjpermenter</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>rktrc</t>
+          <t>lovelyleyda</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ab.gib</t>
+          <t>sonelise_2</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>elliot.espenson</t>
+          <t>kaden4tamu</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>kat_grabi</t>
+          <t>kay.dohhh</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>sheluvs3steban</t>
+          <t>elizabethmrob</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>liliana_jean04</t>
+          <t>alamorover</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>pmcconnico</t>
+          <t>margie_mae_hitt</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>shelby_len05</t>
+          <t>hunter.jp05</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>floreskadyn9</t>
+          <t>bushherd</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>mackharris351</t>
+          <t>tabithawilke</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>em_mercer7</t>
+          <t>annishpattani04</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>lichitacookies</t>
+          <t>peyton.presnall</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ivyee_2023</t>
+          <t>banjo_chaps</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>bellaj5060</t>
+          <t>thibodauxtrey</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>kylei.anne</t>
+          <t>nehakawane_28</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ogungbilealamu</t>
+          <t>nhesse_14</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>mimicardenas1769</t>
+          <t>madeleine.meece</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>petraz91</t>
+          <t>lacey_thorpe</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>lauryn.hoover_</t>
+          <t>arianab0623</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ccole290919</t>
+          <t>josemateoordonez</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>cantu_jacquie</t>
+          <t>sowmith.b</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>aavery.deyoung</t>
+          <t>mallorypayton_</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>laurennclarkk_</t>
+          <t>joannesdoering</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>mayapapayayanes</t>
+          <t>beapea00</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>nitamehta23</t>
+          <t>blakebutcherr</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>gabe.esen</t>
+          <t>tamuartsci</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>joannesdoering</t>
+          <t>kate.balli</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>alaynacastro_</t>
+          <t>th3kingk3nn3dy</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>rileyjwilliamss</t>
+          <t>lukeporter2004</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>rcburenheide</t>
+          <t>tamistout</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>alyssa.richard9</t>
+          <t>_elisacollins_</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>seastley</t>
+          <t>floreskadyn9</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>noellsuzannee</t>
+          <t>coleschieberle</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>allid_2ls</t>
+          <t>_saddiebrenae</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>jessicaalbrecht_924</t>
+          <t>c_h10e04</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>abbyy.llee</t>
+          <t>vickyy.duno</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>nickyhenderson35</t>
+          <t>kinleyrae1405</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>macho.gorilla.moviestar</t>
+          <t>jfsalazarb</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>bridget.dorotik08</t>
+          <t>clayton_d27</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>roberto.q4</t>
+          <t>emilyghullinger</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>mabrymoorman</t>
+          <t>janssen8031</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>llexygreen</t>
+          <t>caroline_behnke707</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>carsoncoleman_</t>
+          <t>emma_ggcc</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>rol_5_carmen_niemeyer</t>
+          <t>cadencelonggg</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>stephaniehildrichardson</t>
+          <t>kenzieclaflin</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>jesuferanmiayanlade</t>
+          <t>deacon_cruz10</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>kd.garza03</t>
+          <t>zachary_leaver</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>db_53</t>
+          <t>laurennclarkk_</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>garrisonb2284</t>
+          <t>masonbinz12</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>cjshaji</t>
+          <t>sydneylegg_</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>revnorthgate</t>
+          <t>mariavictoriaariass</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>tay1ormurphy</t>
+          <t>pattipc</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>masonbpiper</t>
+          <t>jeana_cate_</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>colby.sallee12</t>
+          <t>jkcox1</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>yaswant_pankaj</t>
+          <t>acam20500</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>tamuinnovationx</t>
+          <t>kenguyeny</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>olivia.cayden</t>
+          <t>marissacmorales</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>alan_beltran17</t>
+          <t>amy_rene_original_</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>morrisdylan_</t>
+          <t>sowmya.dondapati</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>oreonat888</t>
+          <t>grantmeansbusiness</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ctmata</t>
+          <t>itzury.xx</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>madilyn.hartney</t>
+          <t>_lauren_teetes</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>danna.pr</t>
+          <t>diabetesdave23</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>alitersandra</t>
+          <t>ryleeddavis</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>prichards974</t>
+          <t>rcburenheide</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>meg.moores</t>
+          <t>ellie_cummings27</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>bud2.09</t>
+          <t>soniaamirandaa_</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>neely.ryen</t>
+          <t>pamelahughespak</t>
         </is>
       </c>
       <c r="B450" t="b">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>kendellwilson5</t>
+          <t>andrewstucker24</t>
         </is>
       </c>
       <c r="B451" t="b">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>annahelming</t>
+          <t>cathycheatham</t>
         </is>
       </c>
       <c r="B452" t="b">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>cassishwo</t>
+          <t>prichards974</t>
         </is>
       </c>
       <c r="B453" t="b">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>shakeryousof</t>
+          <t>kalpesh2409</t>
         </is>
       </c>
       <c r="B454" t="b">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>joliemalan_</t>
+          <t>cahughestx</t>
         </is>
       </c>
       <c r="B455" t="b">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>jazzyyross</t>
+          <t>gracenicole.h</t>
         </is>
       </c>
       <c r="B456" t="b">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>emme__jordan</t>
+          <t>camillle_b</t>
         </is>
       </c>
       <c r="B457" t="b">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>jemma.ann</t>
+          <t>nlorenzo2005</t>
         </is>
       </c>
       <c r="B458" t="b">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>kadinlarsen1</t>
+          <t>fitzzzywitzzzy</t>
         </is>
       </c>
       <c r="B459" t="b">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>emileyxlane</t>
+          <t>ashlyn.greer</t>
         </is>
       </c>
       <c r="B460" t="b">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>karly.willimann</t>
+          <t>rol_5_carmen_niemeyer</t>
         </is>
       </c>
       <c r="B461" t="b">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>caroline_behnke707</t>
+          <t>kristteennn</t>
         </is>
       </c>
       <c r="B462" t="b">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>kenzieleighsims</t>
+          <t>ashlynanejackson</t>
         </is>
       </c>
       <c r="B463" t="b">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>madyson.heaton</t>
+          <t>drjulietfarmer</t>
         </is>
       </c>
       <c r="B464" t="b">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>adri.m696</t>
+          <t>ale.vaz.gon97</t>
         </is>
       </c>
       <c r="B465" t="b">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>sebastienvongkaseum</t>
+          <t>obi1kenobi13</t>
         </is>
       </c>
       <c r="B466" t="b">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>zoemarants</t>
+          <t>ashley.beth05</t>
         </is>
       </c>
       <c r="B467" t="b">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>andrewjb306</t>
+          <t>danna.pr</t>
         </is>
       </c>
       <c r="B468" t="b">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>wilsoncantuclan</t>
+          <t>hannahxmcfarlane</t>
         </is>
       </c>
       <c r="B469" t="b">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>gsamantha532</t>
+          <t>abdullahmehmood._</t>
         </is>
       </c>
       <c r="B470" t="b">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>deonnah__annette</t>
+          <t>ava.slocum</t>
         </is>
       </c>
       <c r="B471" t="b">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>gracenicole.h</t>
+          <t>lori.moores</t>
         </is>
       </c>
       <c r="B472" t="b">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>miles_parisss</t>
+          <t>elizadchristian</t>
         </is>
       </c>
       <c r="B473" t="b">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>palomalopez363</t>
+          <t>em.craven1</t>
         </is>
       </c>
       <c r="B474" t="b">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>melbowman73</t>
+          <t>stacywisner</t>
         </is>
       </c>
       <c r="B475" t="b">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>kamilagrossi</t>
+          <t>artewb2</t>
         </is>
       </c>
       <c r="B476" t="b">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>nhesse_14</t>
+          <t>seth._.lucas</t>
         </is>
       </c>
       <c r="B477" t="b">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>daltonregehr</t>
+          <t>silviamartha1999</t>
         </is>
       </c>
       <c r="B478" t="b">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>brooklynsparkss</t>
+          <t>dazha.cooper</t>
         </is>
       </c>
       <c r="B479" t="b">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>nonira2424</t>
+          <t>foodie_steph_123x</t>
         </is>
       </c>
       <c r="B480" t="b">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>caleb.c.woodard</t>
+          <t>mason_zavodnyy</t>
         </is>
       </c>
       <c r="B481" t="b">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>linan_scott</t>
+          <t>tnbhill1969</t>
         </is>
       </c>
       <c r="B482" t="b">
@@ -5258,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>sarahjpermenter</t>
+          <t>o.hous</t>
         </is>
       </c>
       <c r="B483" t="b">
@@ -5268,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>macymcmanus_</t>
+          <t>cocoforcandypuffs</t>
         </is>
       </c>
       <c r="B484" t="b">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>mandy.kehoe</t>
+          <t>kenzie.balzen</t>
         </is>
       </c>
       <c r="B485" t="b">
@@ -5288,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>kate.g_nicole</t>
+          <t>josh_lamotte</t>
         </is>
       </c>
       <c r="B486" t="b">
@@ -5298,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>danahle</t>
+          <t>lemen.taart</t>
         </is>
       </c>
       <c r="B487" t="b">
@@ -5308,7 +5308,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ashleyheer_</t>
+          <t>mimicardenas1769</t>
         </is>
       </c>
       <c r="B488" t="b">
@@ -5318,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>h3nr7_b</t>
+          <t>jleigh_23</t>
         </is>
       </c>
       <c r="B489" t="b">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>tkilgore25_</t>
+          <t>monica.thompson35537</t>
         </is>
       </c>
       <c r="B490" t="b">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>riley_bohl3</t>
+          <t>pty_kenzie4</t>
         </is>
       </c>
       <c r="B491" t="b">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>shellssgram</t>
+          <t>haythamelkour</t>
         </is>
       </c>
       <c r="B492" t="b">
@@ -5358,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>vel.shee</t>
+          <t>kaayla_rrr</t>
         </is>
       </c>
       <c r="B493" t="b">
@@ -5368,7 +5368,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>amy.f.hammond</t>
+          <t>thomroyce2</t>
         </is>
       </c>
       <c r="B494" t="b">
@@ -5378,7 +5378,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>tinaccoppinger</t>
+          <t>miller_al505</t>
         </is>
       </c>
       <c r="B495" t="b">
@@ -5388,7 +5388,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>catherinec_brown</t>
+          <t>brynn__leach</t>
         </is>
       </c>
       <c r="B496" t="b">
@@ -5398,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>joshuapar.htx</t>
+          <t>jewels610rn</t>
         </is>
       </c>
       <c r="B497" t="b">
@@ -5408,7 +5408,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>lauren.matlock</t>
+          <t>jonesmaya11</t>
         </is>
       </c>
       <c r="B498" t="b">
@@ -5418,3450 +5418,10 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>sheenamcdaniel</t>
+          <t>veronicacastaneda754</t>
         </is>
       </c>
       <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>izziie.ee</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>josh_llorca</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>tylermgiesler</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>ty_paris_2</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>fusaram26</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>angela_hardwick</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>christianallen_06</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>cadedcarpenter</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>conner_meyer5</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>cambell.scout</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>margie_mae_hitt</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>reach.huy</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>kate.balli</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>alfonsogguido0419</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>peyton_paulsen</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>lohrisabella</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>fatimaescurraa</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>katrinaholland_</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>mandybratton2018</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>jack.swanner</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>hannah.cj.williams</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>martin_siq</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>abbyhooker_</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>inaya_ann</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>julianasmart</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>mateen.lindsay</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>n_vargas.04</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>isabel_petz</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>nay91</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>masonlhanson</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>jess.catherin</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>mal_gal26284</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>ash_guzman01</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>vivianagarciiia</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>josh_lamotte</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>victorhornos1</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>kyliee.11</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>kateejakoby</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>calistatijmes</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>james_eade123</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>cash.nichols19</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>kash_money8616</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>meagan.2904</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>fhtown18fdb</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>magenbrotemarkle</t>
-        </is>
-      </c>
-      <c r="B544" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>vancitypena</t>
-        </is>
-      </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>_zdavila._</t>
-        </is>
-      </c>
-      <c r="B546" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>advancedmanufacturing_tamu</t>
-        </is>
-      </c>
-      <c r="B547" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>avery.schumann</t>
-        </is>
-      </c>
-      <c r="B548" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>jessica_l_b8295</t>
-        </is>
-      </c>
-      <c r="B549" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>nicholas_falcone_</t>
-        </is>
-      </c>
-      <c r="B550" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>jr.avery_</t>
-        </is>
-      </c>
-      <c r="B551" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>armaan.m.azam</t>
-        </is>
-      </c>
-      <c r="B552" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>alex_nemey</t>
-        </is>
-      </c>
-      <c r="B553" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>ellaaagreen</t>
-        </is>
-      </c>
-      <c r="B554" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>carlyyjordan</t>
-        </is>
-      </c>
-      <c r="B555" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>madi.perkinss</t>
-        </is>
-      </c>
-      <c r="B556" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>braydenmolyneaux04</t>
-        </is>
-      </c>
-      <c r="B557" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>rossdrena</t>
-        </is>
-      </c>
-      <c r="B558" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>jleigh_23</t>
-        </is>
-      </c>
-      <c r="B559" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>remi_ross1</t>
-        </is>
-      </c>
-      <c r="B560" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>sleek6971</t>
-        </is>
-      </c>
-      <c r="B561" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>th3kingk3nn3dy</t>
-        </is>
-      </c>
-      <c r="B562" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>calihindes</t>
-        </is>
-      </c>
-      <c r="B563" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>adeyemo_zion</t>
-        </is>
-      </c>
-      <c r="B564" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>luke_laudeman</t>
-        </is>
-      </c>
-      <c r="B565" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>makena.lutes</t>
-        </is>
-      </c>
-      <c r="B566" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>elyssafarley</t>
-        </is>
-      </c>
-      <c r="B567" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>t0mmy.w0mmy</t>
-        </is>
-      </c>
-      <c r="B568" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>lydia.ann.spivey</t>
-        </is>
-      </c>
-      <c r="B569" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>mollyshiggins</t>
-        </is>
-      </c>
-      <c r="B570" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>sarah.madla</t>
-        </is>
-      </c>
-      <c r="B571" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>abbymichalakk</t>
-        </is>
-      </c>
-      <c r="B572" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>k.ylaamariee</t>
-        </is>
-      </c>
-      <c r="B573" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>tdoran.12</t>
-        </is>
-      </c>
-      <c r="B574" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>kalyanidwaraka</t>
-        </is>
-      </c>
-      <c r="B575" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>guy_edgenuity</t>
-        </is>
-      </c>
-      <c r="B576" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>sydneymessersmith_13</t>
-        </is>
-      </c>
-      <c r="B577" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>kevinvonnacher</t>
-        </is>
-      </c>
-      <c r="B578" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>jblount3</t>
-        </is>
-      </c>
-      <c r="B579" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>mykahavery</t>
-        </is>
-      </c>
-      <c r="B580" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>rithvik.gogula</t>
-        </is>
-      </c>
-      <c r="B581" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>nygaardian2203</t>
-        </is>
-      </c>
-      <c r="B582" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>j3sutowo</t>
-        </is>
-      </c>
-      <c r="B583" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>ella_storment</t>
-        </is>
-      </c>
-      <c r="B584" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>brooklyntaylor62</t>
-        </is>
-      </c>
-      <c r="B585" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>mazieheidger</t>
-        </is>
-      </c>
-      <c r="B586" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>solrac5868</t>
-        </is>
-      </c>
-      <c r="B587" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>ben_pactanac</t>
-        </is>
-      </c>
-      <c r="B588" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>landonlanebownds</t>
-        </is>
-      </c>
-      <c r="B589" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>gabriel_bitton</t>
-        </is>
-      </c>
-      <c r="B590" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>ssarahwillmann</t>
-        </is>
-      </c>
-      <c r="B591" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>brookeaveryelmore</t>
-        </is>
-      </c>
-      <c r="B592" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>kayden_bazian</t>
-        </is>
-      </c>
-      <c r="B593" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>kaden4tamu</t>
-        </is>
-      </c>
-      <c r="B594" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>garciamanuelroldan</t>
-        </is>
-      </c>
-      <c r="B595" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>pvamu_27</t>
-        </is>
-      </c>
-      <c r="B596" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>sukh_a1078</t>
-        </is>
-      </c>
-      <c r="B597" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>bhaktiipa</t>
-        </is>
-      </c>
-      <c r="B598" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>gr.acie.b</t>
-        </is>
-      </c>
-      <c r="B599" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>annasaurus._.rex</t>
-        </is>
-      </c>
-      <c r="B600" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>kindleavery</t>
-        </is>
-      </c>
-      <c r="B601" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>sophiewaless</t>
-        </is>
-      </c>
-      <c r="B602" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>steele.rodriguez</t>
-        </is>
-      </c>
-      <c r="B603" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>_lilywillis</t>
-        </is>
-      </c>
-      <c r="B604" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>kasiehamman</t>
-        </is>
-      </c>
-      <c r="B605" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>taytay.givens</t>
-        </is>
-      </c>
-      <c r="B606" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>amber_gwynn</t>
-        </is>
-      </c>
-      <c r="B607" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>froschjolie</t>
-        </is>
-      </c>
-      <c r="B608" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>shelbylinn11</t>
-        </is>
-      </c>
-      <c r="B609" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>calin_ovi</t>
-        </is>
-      </c>
-      <c r="B610" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>prestonmccutchen</t>
-        </is>
-      </c>
-      <c r="B611" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>goingallin12_2</t>
-        </is>
-      </c>
-      <c r="B612" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>lifeinthebergenlane</t>
-        </is>
-      </c>
-      <c r="B613" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>michellegriselldelgado</t>
-        </is>
-      </c>
-      <c r="B614" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>pdoodle10</t>
-        </is>
-      </c>
-      <c r="B615" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>alanalopman</t>
-        </is>
-      </c>
-      <c r="B616" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>riley_m_wood</t>
-        </is>
-      </c>
-      <c r="B617" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>grace_kp02</t>
-        </is>
-      </c>
-      <c r="B618" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>emma_ggcc</t>
-        </is>
-      </c>
-      <c r="B619" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>tamuabs</t>
-        </is>
-      </c>
-      <c r="B620" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>beebapoopy</t>
-        </is>
-      </c>
-      <c r="B621" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>thatguy_buben</t>
-        </is>
-      </c>
-      <c r="B622" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>tamu_peap</t>
-        </is>
-      </c>
-      <c r="B623" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>oscar.fbuitrago</t>
-        </is>
-      </c>
-      <c r="B624" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>lukeporter2004</t>
-        </is>
-      </c>
-      <c r="B625" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>nlorenzo2005</t>
-        </is>
-      </c>
-      <c r="B626" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>laurencowieson</t>
-        </is>
-      </c>
-      <c r="B627" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>unclesammywammy</t>
-        </is>
-      </c>
-      <c r="B628" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>mia_w_9</t>
-        </is>
-      </c>
-      <c r="B629" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>esg_1115</t>
-        </is>
-      </c>
-      <c r="B630" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>pamelahughespak</t>
-        </is>
-      </c>
-      <c r="B631" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>trev_thomas5</t>
-        </is>
-      </c>
-      <c r="B632" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>yoannnaudin</t>
-        </is>
-      </c>
-      <c r="B633" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>beth15any</t>
-        </is>
-      </c>
-      <c r="B634" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>chris_peacocp</t>
-        </is>
-      </c>
-      <c r="B635" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>bellaa.jadeee</t>
-        </is>
-      </c>
-      <c r="B636" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>fischerreed13</t>
-        </is>
-      </c>
-      <c r="B637" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>maciew022</t>
-        </is>
-      </c>
-      <c r="B638" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>jamielynncheak</t>
-        </is>
-      </c>
-      <c r="B639" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>raaedf40</t>
-        </is>
-      </c>
-      <c r="B640" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>sofiehogann</t>
-        </is>
-      </c>
-      <c r="B641" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>brack_3_</t>
-        </is>
-      </c>
-      <c r="B642" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>thereal_jmoore_</t>
-        </is>
-      </c>
-      <c r="B643" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>chloe_leyva</t>
-        </is>
-      </c>
-      <c r="B644" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>alex.luck5</t>
-        </is>
-      </c>
-      <c r="B645" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>sydney.novelli</t>
-        </is>
-      </c>
-      <c r="B646" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>leo_omelette</t>
-        </is>
-      </c>
-      <c r="B647" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>scarlettamber212</t>
-        </is>
-      </c>
-      <c r="B648" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>alyssacopp_</t>
-        </is>
-      </c>
-      <c r="B649" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>ceg1994</t>
-        </is>
-      </c>
-      <c r="B650" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>emma_lynn_miller</t>
-        </is>
-      </c>
-      <c r="B651" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>karyme_pb</t>
-        </is>
-      </c>
-      <c r="B652" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>jaxsonmeyer_10</t>
-        </is>
-      </c>
-      <c r="B653" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>txgirl4life03</t>
-        </is>
-      </c>
-      <c r="B654" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>_molly_quin</t>
-        </is>
-      </c>
-      <c r="B655" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>holdenmoses_8</t>
-        </is>
-      </c>
-      <c r="B656" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>inksplash_draws</t>
-        </is>
-      </c>
-      <c r="B657" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>ivry_1213</t>
-        </is>
-      </c>
-      <c r="B658" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>loser_12_</t>
-        </is>
-      </c>
-      <c r="B659" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>rosecityym</t>
-        </is>
-      </c>
-      <c r="B660" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>abbi_skye04</t>
-        </is>
-      </c>
-      <c r="B661" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>why_not__979</t>
-        </is>
-      </c>
-      <c r="B662" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>clayton_d27</t>
-        </is>
-      </c>
-      <c r="B663" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>hope_howard27</t>
-        </is>
-      </c>
-      <c r="B664" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>_jodie_lest</t>
-        </is>
-      </c>
-      <c r="B665" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>ethanallerkamp</t>
-        </is>
-      </c>
-      <c r="B666" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>pat_sk26</t>
-        </is>
-      </c>
-      <c r="B667" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>h_keelen05</t>
-        </is>
-      </c>
-      <c r="B668" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>lyndee.lambert</t>
-        </is>
-      </c>
-      <c r="B669" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>coleschieberle</t>
-        </is>
-      </c>
-      <c r="B670" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>allie.southall</t>
-        </is>
-      </c>
-      <c r="B671" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>plugexclusive1</t>
-        </is>
-      </c>
-      <c r="B672" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>jfsalazarb</t>
-        </is>
-      </c>
-      <c r="B673" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>lizzyjordan</t>
-        </is>
-      </c>
-      <c r="B674" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>sridevisunil</t>
-        </is>
-      </c>
-      <c r="B675" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>spencerwagner_</t>
-        </is>
-      </c>
-      <c r="B676" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>melsxdy</t>
-        </is>
-      </c>
-      <c r="B677" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>keaton.chandler1</t>
-        </is>
-      </c>
-      <c r="B678" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>zachary_leaver</t>
-        </is>
-      </c>
-      <c r="B679" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>jonathanwisnieski</t>
-        </is>
-      </c>
-      <c r="B680" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>sydneyvanc</t>
-        </is>
-      </c>
-      <c r="B681" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>_hadleestalvey_</t>
-        </is>
-      </c>
-      <c r="B682" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>shanerayehawkins</t>
-        </is>
-      </c>
-      <c r="B683" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>matthew_05_</t>
-        </is>
-      </c>
-      <c r="B684" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>matthew_g787</t>
-        </is>
-      </c>
-      <c r="B685" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>chrisrodz2.0</t>
-        </is>
-      </c>
-      <c r="B686" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>andrew.maddron</t>
-        </is>
-      </c>
-      <c r="B687" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>charlie_is_a_pile</t>
-        </is>
-      </c>
-      <c r="B688" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>texasamstudliving</t>
-        </is>
-      </c>
-      <c r="B689" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>ashleyrichmond_05</t>
-        </is>
-      </c>
-      <c r="B690" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>sarahalcalah</t>
-        </is>
-      </c>
-      <c r="B691" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>amj.jacoby</t>
-        </is>
-      </c>
-      <c r="B692" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>d.arroyo.2005</t>
-        </is>
-      </c>
-      <c r="B693" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>jenbrown5</t>
-        </is>
-      </c>
-      <c r="B694" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>marleejackson_</t>
-        </is>
-      </c>
-      <c r="B695" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>sonelise_2</t>
-        </is>
-      </c>
-      <c r="B696" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>jacie_vaughan</t>
-        </is>
-      </c>
-      <c r="B697" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>varshini__.m</t>
-        </is>
-      </c>
-      <c r="B698" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>miller_al505</t>
-        </is>
-      </c>
-      <c r="B699" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>alice.cq</t>
-        </is>
-      </c>
-      <c r="B700" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>adam_pinilla</t>
-        </is>
-      </c>
-      <c r="B701" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>jumanaaa.a</t>
-        </is>
-      </c>
-      <c r="B702" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>dezraeg</t>
-        </is>
-      </c>
-      <c r="B703" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>samsammy184</t>
-        </is>
-      </c>
-      <c r="B704" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>logan.prichard</t>
-        </is>
-      </c>
-      <c r="B705" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>brinley.jetton</t>
-        </is>
-      </c>
-      <c r="B706" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>tamistout</t>
-        </is>
-      </c>
-      <c r="B707" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>amand_aemmaline</t>
-        </is>
-      </c>
-      <c r="B708" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>pattipc</t>
-        </is>
-      </c>
-      <c r="B709" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>every1_luvs_lia</t>
-        </is>
-      </c>
-      <c r="B710" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>sarahkmitchell_</t>
-        </is>
-      </c>
-      <c r="B711" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>zav.e.s</t>
-        </is>
-      </c>
-      <c r="B712" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>beapea00</t>
-        </is>
-      </c>
-      <c r="B713" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>sierralstewart</t>
-        </is>
-      </c>
-      <c r="B714" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>emily.marie.22</t>
-        </is>
-      </c>
-      <c r="B715" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>gigemparties</t>
-        </is>
-      </c>
-      <c r="B716" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>hugheszoo</t>
-        </is>
-      </c>
-      <c r="B717" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>rickeyd8865</t>
-        </is>
-      </c>
-      <c r="B718" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>cristal.valenc</t>
-        </is>
-      </c>
-      <c r="B719" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>ellenwatt_</t>
-        </is>
-      </c>
-      <c r="B720" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>v.sunshine42</t>
-        </is>
-      </c>
-      <c r="B721" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>alex.zanca</t>
-        </is>
-      </c>
-      <c r="B722" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>james_w_cardon</t>
-        </is>
-      </c>
-      <c r="B723" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>iranly01</t>
-        </is>
-      </c>
-      <c r="B724" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>markhanson__</t>
-        </is>
-      </c>
-      <c r="B725" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>cades05</t>
-        </is>
-      </c>
-      <c r="B726" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>jake_snider_12</t>
-        </is>
-      </c>
-      <c r="B727" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>deacon_cruz10</t>
-        </is>
-      </c>
-      <c r="B728" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>sarah_m_morrissey</t>
-        </is>
-      </c>
-      <c r="B729" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>vineyard.sarah</t>
-        </is>
-      </c>
-      <c r="B730" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>emilygrace_garzaaa</t>
-        </is>
-      </c>
-      <c r="B731" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>samanthakolts</t>
-        </is>
-      </c>
-      <c r="B732" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>sam.yontz</t>
-        </is>
-      </c>
-      <c r="B733" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>beli.nda4070</t>
-        </is>
-      </c>
-      <c r="B734" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>austin.fit850</t>
-        </is>
-      </c>
-      <c r="B735" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>cj_lonestar_76528</t>
-        </is>
-      </c>
-      <c r="B736" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>mallorypayton_</t>
-        </is>
-      </c>
-      <c r="B737" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>dj.mata24</t>
-        </is>
-      </c>
-      <c r="B738" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>gagesecor</t>
-        </is>
-      </c>
-      <c r="B739" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>hopee.adamss</t>
-        </is>
-      </c>
-      <c r="B740" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>lenorarobertss</t>
-        </is>
-      </c>
-      <c r="B741" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>itsparvathimenon</t>
-        </is>
-      </c>
-      <c r="B742" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>gnimm05</t>
-        </is>
-      </c>
-      <c r="B743" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>rituhandmadearts</t>
-        </is>
-      </c>
-      <c r="B744" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>kenzie.balzen</t>
-        </is>
-      </c>
-      <c r="B745" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>tamuglac</t>
-        </is>
-      </c>
-      <c r="B746" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>haythamelkour</t>
-        </is>
-      </c>
-      <c r="B747" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>jeana_cate_</t>
-        </is>
-      </c>
-      <c r="B748" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>mariodmourtakos</t>
-        </is>
-      </c>
-      <c r="B749" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>getfitwith_tati</t>
-        </is>
-      </c>
-      <c r="B750" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>lami.n6334</t>
-        </is>
-      </c>
-      <c r="B751" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>mindygarcia904</t>
-        </is>
-      </c>
-      <c r="B752" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>fernando.hinojosa4</t>
-        </is>
-      </c>
-      <c r="B753" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>rileyannfox</t>
-        </is>
-      </c>
-      <c r="B754" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>t45_alejandro</t>
-        </is>
-      </c>
-      <c r="B755" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>carolinecrumpp</t>
-        </is>
-      </c>
-      <c r="B756" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>cami.sanchez.11</t>
-        </is>
-      </c>
-      <c r="B757" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>vevo_dean</t>
-        </is>
-      </c>
-      <c r="B758" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>ellieee.tipton</t>
-        </is>
-      </c>
-      <c r="B759" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>therealjacebrasnick</t>
-        </is>
-      </c>
-      <c r="B760" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>payton.9767</t>
-        </is>
-      </c>
-      <c r="B761" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>lucy_e_davis</t>
-        </is>
-      </c>
-      <c r="B762" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>mason.mazoch</t>
-        </is>
-      </c>
-      <c r="B763" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>soniaamirandaa_</t>
-        </is>
-      </c>
-      <c r="B764" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>sydneylegg_</t>
-        </is>
-      </c>
-      <c r="B765" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>james.schr05</t>
-        </is>
-      </c>
-      <c r="B766" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>jack_johnston511</t>
-        </is>
-      </c>
-      <c r="B767" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>lauren.cita_577</t>
-        </is>
-      </c>
-      <c r="B768" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>sylee.ramanathan</t>
-        </is>
-      </c>
-      <c r="B769" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>matthew._.warren</t>
-        </is>
-      </c>
-      <c r="B770" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>quesarah_sarah_m</t>
-        </is>
-      </c>
-      <c r="B771" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>xmdimran</t>
-        </is>
-      </c>
-      <c r="B772" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>maciewim</t>
-        </is>
-      </c>
-      <c r="B773" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>brook_j32</t>
-        </is>
-      </c>
-      <c r="B774" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>kitsy1967</t>
-        </is>
-      </c>
-      <c r="B775" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>avery.farmer</t>
-        </is>
-      </c>
-      <c r="B776" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>sowmya.dondapati</t>
-        </is>
-      </c>
-      <c r="B777" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>kenzieclaflin</t>
-        </is>
-      </c>
-      <c r="B778" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>rinks311</t>
-        </is>
-      </c>
-      <c r="B779" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>addyy.kieschnick</t>
-        </is>
-      </c>
-      <c r="B780" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>nique_gee</t>
-        </is>
-      </c>
-      <c r="B781" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>alexchu.831</t>
-        </is>
-      </c>
-      <c r="B782" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>jimraybould</t>
-        </is>
-      </c>
-      <c r="B783" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>luke_chambers05</t>
-        </is>
-      </c>
-      <c r="B784" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>lukajames5_</t>
-        </is>
-      </c>
-      <c r="B785" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>naomi.dallal</t>
-        </is>
-      </c>
-      <c r="B786" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>mardii.eastman</t>
-        </is>
-      </c>
-      <c r="B787" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>may_s0101</t>
-        </is>
-      </c>
-      <c r="B788" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>davsjohnson</t>
-        </is>
-      </c>
-      <c r="B789" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>aspirinaaaaa</t>
-        </is>
-      </c>
-      <c r="B790" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>notcool214</t>
-        </is>
-      </c>
-      <c r="B791" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>dee10356</t>
-        </is>
-      </c>
-      <c r="B792" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>melmini_n</t>
-        </is>
-      </c>
-      <c r="B793" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>averyg0n</t>
-        </is>
-      </c>
-      <c r="B794" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>ashlynn_reynolds_</t>
-        </is>
-      </c>
-      <c r="B795" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>a_carpio18</t>
-        </is>
-      </c>
-      <c r="B796" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>alexa.brinkman</t>
-        </is>
-      </c>
-      <c r="B797" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>tamu_nomva</t>
-        </is>
-      </c>
-      <c r="B798" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>averydeli</t>
-        </is>
-      </c>
-      <c r="B799" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>jordan_cox19</t>
-        </is>
-      </c>
-      <c r="B800" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>marki_was_here</t>
-        </is>
-      </c>
-      <c r="B801" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>zoey_brooks4635</t>
-        </is>
-      </c>
-      <c r="B802" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>maddiec.04</t>
-        </is>
-      </c>
-      <c r="B803" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>kk_hari4</t>
-        </is>
-      </c>
-      <c r="B804" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>lexi.pogue</t>
-        </is>
-      </c>
-      <c r="B805" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>masontatee2</t>
-        </is>
-      </c>
-      <c r="B806" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>_marisol.22</t>
-        </is>
-      </c>
-      <c r="B807" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>tamudsp</t>
-        </is>
-      </c>
-      <c r="B808" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>brinkmanjbm</t>
-        </is>
-      </c>
-      <c r="B809" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>genevievemesich</t>
-        </is>
-      </c>
-      <c r="B810" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>william_marks05</t>
-        </is>
-      </c>
-      <c r="B811" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>dhanabrama</t>
-        </is>
-      </c>
-      <c r="B812" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>o.hous</t>
-        </is>
-      </c>
-      <c r="B813" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>_kallieclark</t>
-        </is>
-      </c>
-      <c r="B814" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>yukio177</t>
-        </is>
-      </c>
-      <c r="B815" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>kay_2115</t>
-        </is>
-      </c>
-      <c r="B816" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>samuelashley13</t>
-        </is>
-      </c>
-      <c r="B817" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>froomie</t>
-        </is>
-      </c>
-      <c r="B818" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>arianab0623</t>
-        </is>
-      </c>
-      <c r="B819" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>emiliano_aldaco21</t>
-        </is>
-      </c>
-      <c r="B820" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>reza.94832</t>
-        </is>
-      </c>
-      <c r="B821" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>ashlyn.greer</t>
-        </is>
-      </c>
-      <c r="B822" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>chloe_anncar</t>
-        </is>
-      </c>
-      <c r="B823" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>themitchellrichardson</t>
-        </is>
-      </c>
-      <c r="B824" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>nguyenn19</t>
-        </is>
-      </c>
-      <c r="B825" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>amryjk7</t>
-        </is>
-      </c>
-      <c r="B826" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>blakebutcherr</t>
-        </is>
-      </c>
-      <c r="B827" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>cherylanne.cansler_</t>
-        </is>
-      </c>
-      <c r="B828" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>drjulietfarmer</t>
-        </is>
-      </c>
-      <c r="B829" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>spence.not.spencer</t>
-        </is>
-      </c>
-      <c r="B830" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>graciebacon_</t>
-        </is>
-      </c>
-      <c r="B831" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>samantha.siptak</t>
-        </is>
-      </c>
-      <c r="B832" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>keeyinoa</t>
-        </is>
-      </c>
-      <c r="B833" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>kennedy_ritz</t>
-        </is>
-      </c>
-      <c r="B834" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>masha_zamo</t>
-        </is>
-      </c>
-      <c r="B835" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>tatum_.mckinney</t>
-        </is>
-      </c>
-      <c r="B836" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>nicodattilo7</t>
-        </is>
-      </c>
-      <c r="B837" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>hayden.lovelady</t>
-        </is>
-      </c>
-      <c r="B838" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>adominguez1827</t>
-        </is>
-      </c>
-      <c r="B839" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>alex_gonzalez_569</t>
-        </is>
-      </c>
-      <c r="B840" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>the_tyler_stevens121</t>
-        </is>
-      </c>
-      <c r="B841" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>lee_maximus</t>
-        </is>
-      </c>
-      <c r="B842" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>mutua____samuel</t>
-        </is>
-      </c>
-      <c r="B843" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/tamu.roomme.xlsx
+++ b/Marketing/tamu.roomme.xlsx
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">

--- a/Marketing/tamu.roomme.xlsx
+++ b/Marketing/tamu.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lyndee.lambert</t>
+          <t>tamu_bestparties</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trev_thomas5</t>
+          <t>srt.slime422</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gtxnathanwilson</t>
+          <t>laurenbelk</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mounir.fred_</t>
+          <t>diana.s_dive04</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>averydeli</t>
+          <t>jeana_cate_</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>sensitarianallstar</t>
+          <t>nicholas__nottoli</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>the.real.squeaker</t>
+          <t>tamu_peap</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gigemparties</t>
+          <t>zahidk0430</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>iranly01</t>
+          <t>_caroline.olson</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>citlalitlguevara</t>
+          <t>sierralstewart</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tatum_.mckinney</t>
+          <t>prestonvaldez_</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ben_pactanac</t>
+          <t>joshh.wrldd</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>anastasia_c_sutton05</t>
+          <t>shararryan</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kenzieleighsims</t>
+          <t>marifer.jacobo2</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cristal.valenc</t>
+          <t>mandybratton2018</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>alexandramarie_11</t>
+          <t>kyliee.11</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lauren.matlock</t>
+          <t>jessiep_originals</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>julia_machacek</t>
+          <t>sportoonified</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>taryn_mac_h</t>
+          <t>tabithawilke</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>naomi.dallal</t>
+          <t>ashleyheer_</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>kalyanidwaraka</t>
+          <t>ben_pactanac</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>leilaarene._</t>
+          <t>lucy_e_davis</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bella.0028</t>
+          <t>a._alexanderr</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>angelica_.mina</t>
+          <t>feligeh</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mary_jey1000</t>
+          <t>mustbemaroon</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kendyl.r.smith</t>
+          <t>tatum_.mckinney</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>miagracemoore_</t>
+          <t>_mccomb_</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sir_newton95</t>
+          <t>theway_iabc</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>somil7547</t>
+          <t>jackiee_pinkk</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fyejillian</t>
+          <t>kd.garza03</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>weston._borich</t>
+          <t>brook_j32</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>melbowman73</t>
+          <t>iam.raynemarie</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>roxbenjac</t>
+          <t>jimraybould</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>alitersandra</t>
+          <t>allenlettycater</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>calin_ovi</t>
+          <t>carrie.weast</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lichitacookies</t>
+          <t>acbullock</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>cristina.castro13</t>
+          <t>varshini.artham</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>amj.jacoby</t>
+          <t>pepetiradoo</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>kjade_05</t>
+          <t>mariavictoriaariass</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>carrie.weast</t>
+          <t>jess.catherin</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>paytontyner_</t>
+          <t>vel.shee</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>avery.schumann</t>
+          <t>t0mmy.w0mmy</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>willowdawn73</t>
+          <t>hopee.adamss</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>emmaeckelberg_</t>
+          <t>matthew.murphy2</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>oreonat888</t>
+          <t>meagan.2904</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>emma_lynn_miller</t>
+          <t>floreskadyn9</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>holidorm_</t>
+          <t>kristteennn</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>misslennav_13</t>
+          <t>all.madlow</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>maya.lynn.f</t>
+          <t>ssarahwillmann</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>its_bry.gomez.2004</t>
+          <t>kcox61</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>kgarza546</t>
+          <t>prichards974</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cj_lonestar_76528</t>
+          <t>conk399</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>quickdraw_reid4</t>
+          <t>charles.leowe</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>blondebyemilie</t>
+          <t>coleschieberle</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>notalexisrs</t>
+          <t>lelecmelo</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>diana.s_dive04</t>
+          <t>tamistout</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lybaamaro</t>
+          <t>kimberlyv1605</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>aesthetic_arroz</t>
+          <t>holistic.dentalhygienius</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>abbi_skye04</t>
+          <t>brookeaveryelmore</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>muffin_zara_</t>
+          <t>tamuartsci_ugss</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ashleysherk</t>
+          <t>jaylacriss</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>averycarriee</t>
+          <t>sarahjpermenter</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>inksplash_draws</t>
+          <t>sarah.madla</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>burrowshirley</t>
+          <t>rylee_hawkins</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>carmelolch</t>
+          <t>laniedruallen</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>typod15</t>
+          <t>itsparvathimenon</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>andy.mills.0917</t>
+          <t>advancementleague</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>quesarah_sarah_m</t>
+          <t>gigemparties</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>james_w_cardon</t>
+          <t>bella.sanjy</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>james.schr05</t>
+          <t>joannesdoering</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>jesuferanmiayanlade</t>
+          <t>afb.brewer</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>yaminihari76</t>
+          <t>jack_johnston511</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>_lacymacdonald</t>
+          <t>lemen.taart</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>marti.z3</t>
+          <t>villafranco_04</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>olivia.hagstrom</t>
+          <t>tjseibert128</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>james_eade123</t>
+          <t>jaceherford54</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>stephaniehildrichardson</t>
+          <t>nitamehta23</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>conner_meyer5</t>
+          <t>carmelolch</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hareshmenonn</t>
+          <t>dowerpowell</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>_daniellee19_</t>
+          <t>namnom35</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>_jessilynn711__</t>
+          <t>_shayallen</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>gr.acie.b</t>
+          <t>kymo.shmosh</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>michellegriselldelgado</t>
+          <t>brookecoufal</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>julia.m.murphyy</t>
+          <t>themitchellrichardson</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>bellaj5060</t>
+          <t>shakeryousof</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>greeshma.lakka</t>
+          <t>kayl.een479</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>danettadrew</t>
+          <t>sowmith.b</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cassishwo</t>
+          <t>taytay.givens</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>fernando.hinojosa4</t>
+          <t>melbowman73</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>kitsy1967</t>
+          <t>carolinecrumpp</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>danielleequale</t>
+          <t>jaydinarroyos</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>_molly_quin</t>
+          <t>lovelyleyda</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>maciewim</t>
+          <t>pwwoonn</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>fatimaescurraa</t>
+          <t>seetu</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kyliee.11</t>
+          <t>cfrancis1220</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>jeff_hurst50</t>
+          <t>typod15</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>mackharris351</t>
+          <t>sidharth.kammili</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>cherrybomb12_34</t>
+          <t>mazieheidger</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>rachel.falbo</t>
+          <t>crackamackin</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>_marisol.22</t>
+          <t>jeanette__diercoff</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>sarahmurray24_</t>
+          <t>akaggie</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>anna_mcclendon_</t>
+          <t>gracelovescows27</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>steele.rodriguez</t>
+          <t>adominguez1827</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>acbullock</t>
+          <t>jademonk_</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>anthonymrijken</t>
+          <t>kevinvonnacher</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>_jodie_lest</t>
+          <t>zoey_brooks4635</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sophiewaless</t>
+          <t>grrrr.amaya</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>kobinjikobingi</t>
+          <t>matthewski_24</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>rosieyalfredo</t>
+          <t>silviamartha1999</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>davsjohnson</t>
+          <t>sireesha_p05</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>halliebures</t>
+          <t>gracejann21</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>grace_kp02</t>
+          <t>spence.not.spencer</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>damiannnn_espinoza</t>
+          <t>shanerayehawkins</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>royalblackqueen</t>
+          <t>graciebacon_</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>janella_b_exclusively</t>
+          <t>jenna.l.waldrop</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>cfrancis1220</t>
+          <t>mabryherrmann</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>puravdatta</t>
+          <t>stakemyheartt_</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>jr.avery_</t>
+          <t>_lauren_teetes</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>em.ma.a_</t>
+          <t>espinoza_cowboy</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>samsammy184</t>
+          <t>aggiecorpsfish27</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>its_alex.2004</t>
+          <t>lauren.matlock</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>kamilagrossi</t>
+          <t>hunter.jp05</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jaydp1138</t>
+          <t>alaynacastro_</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>peyton.jace</t>
+          <t>brooklyntaylor62</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>madi.perkinss</t>
+          <t>miahnafallentine</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>_kallieclark</t>
+          <t>jesusisbest2</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>cxzdani</t>
+          <t>tamuartsci</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>the_reyno</t>
+          <t>norton.ella</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jumanaaa.a</t>
+          <t>lori.moores</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>alex.zanca</t>
+          <t>the.real.squeaker</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,1507 +1748,1507 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>biancaace</t>
+          <t>autumnhurta</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>crispdosa</t>
+          <t>vineyard.sarah</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>jackrlower25</t>
+          <t>mckinleygwilson</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>s.kyu_0816</t>
+          <t>dianaromadinaa</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sportoonified</t>
+          <t>dleehy.17</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>andie.j_</t>
+          <t>pat_sk26</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>sydneyvanc</t>
+          <t>quickdraw_reid4</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>danahle</t>
+          <t>ccole290919</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>lilianadunn__</t>
+          <t>masonbpiper</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>_gavinbell</t>
+          <t>carajoyjoyjoy</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>nellie_brittan</t>
+          <t>olivialawhead</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>mayapapayayanes</t>
+          <t>aubdoobie</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>aprilleatherwood1</t>
+          <t>amryjk7</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>katianeto299</t>
+          <t>abby.courtwright</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>aspirinaaaaa</t>
+          <t>biersch_wale</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>samantha.siptak</t>
+          <t>kerk6193</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>chanel_correa</t>
+          <t>cathycheatham</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>brianadelagarzaa</t>
+          <t>wesleyhumphrey10</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>kennedy_ritz</t>
+          <t>lydia.ann.spivey</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>danperez44</t>
+          <t>amy_rene_original_</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>vivianagarciiia</t>
+          <t>luke.lensing</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>lizken95</t>
+          <t>nevarage23</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>alexisblotner</t>
+          <t>stacywisner</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>jennking.2019</t>
+          <t>samanthakolts</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>an.naf05</t>
+          <t>guy_edgenuity</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>kathryn.speed</t>
+          <t>cadencelonggg</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ashleyheer_</t>
+          <t>peyyy.matthews</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>angela_hardwick</t>
+          <t>gillian.childs</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>elijah.renteria7</t>
+          <t>janssen8031</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>_solangeemokpae_</t>
+          <t>tamudsp</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>cambell.scout</t>
+          <t>zoemarants</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>brookecoufal</t>
+          <t>lizzyjordan</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>joshuapar.htx</t>
+          <t>court.weath</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>chidi.onwu</t>
+          <t>jire.hh</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>laniedruallen</t>
+          <t>eduardo_martinez_1025</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>emilygrace_garzaaa</t>
+          <t>ethanallerkamp</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sariahcruz_14</t>
+          <t>angela_hardwick</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>samanthakolts</t>
+          <t>samwhend</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>lousgigemgifts</t>
+          <t>hugheszoo</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ktst72</t>
+          <t>christianallen_06</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>froschjolie</t>
+          <t>marleejackson_</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>kinsleym.b</t>
+          <t>presley.shea</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>hopee.adamss</t>
+          <t>olivia.cayden</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>seniors.shoutouts</t>
+          <t>amy.f.hammond</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>motocrossmark</t>
+          <t>samaykrathod</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>kk_hari4</t>
+          <t>_marisol327</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>kaelyn_bray</t>
+          <t>emily.marie.22</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ellaaagreen</t>
+          <t>esg_1115</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>vel.shee</t>
+          <t>always._.saucy._</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>wowwwwwwwwwww728</t>
+          <t>belindabault</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>thomas_sellnau</t>
+          <t>scarlettamber212</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>miahnafallentine</t>
+          <t>mal.makenna</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>beanerblast</t>
+          <t>meg.moores</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>sydney_noojin</t>
+          <t>nicholas_falcone_</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ashleyrichmond_05</t>
+          <t>carsoncoleman_</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>may_s0101</t>
+          <t>sophiewaless</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>feligeh</t>
+          <t>mindyrcollins</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>reesebilledo</t>
+          <t>charlielaffere21</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ecplz5</t>
+          <t>bria.bearden</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>jess.catherin</t>
+          <t>advancedmanufacturing_tamu</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>catherine_pfaffenberger</t>
+          <t>distasteful_will</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>allie.southall</t>
+          <t>emilyevatt_</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>cesar.hinojosa21</t>
+          <t>kateeswisher</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>kasiehamman</t>
+          <t>mandy.kehoe</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>emileyxlane</t>
+          <t>zachary_leaver</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>gw.fishing</t>
+          <t>kasiehamman</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>afb.brewer</t>
+          <t>blondebyemilie</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>brookeaveryelmore</t>
+          <t>lukeporter2004</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>tay1ormurphy</t>
+          <t>biancaace</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>varshini__.m</t>
+          <t>chloe_anncar</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>kimberlyv1605</t>
+          <t>thatguy_buben</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>angelinarivvera</t>
+          <t>_kallieclark</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>andrewwood3424</t>
+          <t>elizadchristian</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>linan_scott</t>
+          <t>jfsalazarb</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>emily.marie.22</t>
+          <t>sydneylegg_</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>luke_laudeman</t>
+          <t>mimicardenas1769</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>lauryn_dex</t>
+          <t>dazha.cooper</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>holistic.dentalhygienius</t>
+          <t>hinadipan</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jsaenz.05</t>
+          <t>madigurley_</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>_halle.grace_</t>
+          <t>yxng_guppy</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>cam.pbg</t>
+          <t>may_s0101</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>denise_dylaney</t>
+          <t>ethanknutsen</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>nboy</t>
+          <t>maddie_mcfarland</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>karlyrlaughley</t>
+          <t>mallorypayton_</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>dmills_ky08</t>
+          <t>drjulietfarmer</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>bhaktiipa</t>
+          <t>teresa_giosmom</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sheenamcdaniel</t>
+          <t>masha_zamo</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sidharth.kammili</t>
+          <t>mutua____samuel</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>logan.prichard</t>
+          <t>alyssaahdz05</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>brinley.jetton</t>
+          <t>tamu_maroonbase</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>seastley</t>
+          <t>rubyacharya2</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>dr._adterry</t>
+          <t>addyngcharme</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>alexa.brinkman</t>
+          <t>_marisol.22</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>unclesammywammy</t>
+          <t>sporty_kayla</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>miranda_holloway</t>
+          <t>cami.sanchez.11</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>nancyaanderson</t>
+          <t>thleleux363</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>chris777771</t>
+          <t>paperbest1</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>h3nr7_b</t>
+          <t>gtxnathanwilson</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>sofiehogann</t>
+          <t>rachel.falbo</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>villafranco_04</t>
+          <t>jackmckay.7</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ellaa.flowers</t>
+          <t>samantha.a.ruiz</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>petah_balozi</t>
+          <t>pippi_timp</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>yukio177</t>
+          <t>maevewallacee</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>_lolascrafts</t>
+          <t>acam20500</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>macho.gorilla.moviestar</t>
+          <t>kaelyn_bray</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>masonbpiper</t>
+          <t>poornima2156</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>delaneyrnash</t>
+          <t>jemma.ann</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>_suziegonzales_</t>
+          <t>somil7547</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>bellaa.jadeee</t>
+          <t>sr_teklu</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>raaedf40</t>
+          <t>riley_m_wood</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>mindygarcia904</t>
+          <t>annahelming</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>e.mgarza</t>
+          <t>edward_millard4</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>samuel_c_white</t>
+          <t>bonfire_nerds</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>riley_m_wood</t>
+          <t>annishpattani04</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>madelineashall</t>
+          <t>weston._borich</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>mayraguel05</t>
+          <t>cesar.hinojosa21</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>thereal_jmoore_</t>
+          <t>justaustin.s</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>sarahkmitchell_</t>
+          <t>lacey_thorpe</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>amy.f.hammond</t>
+          <t>payton.9767</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>jamielynncheak</t>
+          <t>tamuphisigmarho</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>4339elsie</t>
+          <t>shaniya_oliviah</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>kyleparker23456</t>
+          <t>usha.chowdhury_austin</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>savannah.ghormley</t>
+          <t>cherrybomb12_34</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>tamurwfm</t>
+          <t>kate.g_nicole</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>nay91</t>
+          <t>getfitwith_tati</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>juanpalomo04</t>
+          <t>citlalitlguevara</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>teresa_giosmom</t>
+          <t>victorhornos1</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>paysonhicks</t>
+          <t>madi_b_ingrammm</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>rreidrobertson</t>
+          <t>tamu_nomva</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>autumnhurta</t>
+          <t>soniaamirandaa_</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>edward_millard4</t>
+          <t>rithvik.gogula</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>amy_mccune12</t>
+          <t>magenbrotemarkle</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t45_alejandro</t>
+          <t>alex.zanca</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>meagan.2904</t>
+          <t>jakeiluk</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>sydneymessersmith_13</t>
+          <t>heatherjulia75</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>yxng_guppy</t>
+          <t>n_vargas.04</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>alex_gonzalez_569</t>
+          <t>gw.fishing</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>luisa_0417</t>
+          <t>shayne_pruitt</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>hannahjmchang</t>
+          <t>joliemalan_</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>zumacum</t>
+          <t>ananyaamurthy</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>rebeckyh81</t>
+          <t>cam.pbg</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>emiliano_aldaco21</t>
+          <t>genevievemesich</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>bella.sanjy</t>
+          <t>macymcmanus_</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>mm0rgan.k</t>
+          <t>tiannamilesss</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>audreyreese_14</t>
+          <t>wilsoncantuclan</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>kat_grabi</t>
+          <t>jaxsonmeyer_10</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>lelecmelo</t>
+          <t>rinks311</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>akaggie</t>
+          <t>tamurwfm</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>calihindes</t>
+          <t>soscottoncandy</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>akeldakate</t>
+          <t>kendyl.r.smith</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>sydney.novelli</t>
+          <t>oliviarhaun</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>beth15any</t>
+          <t>_hadleestalvey_</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>hopelizabeth__</t>
+          <t>rachel.tatum_</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>madigurley_</t>
+          <t>jasminnee.8</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>chloe_anncar</t>
+          <t>allisonepoole</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>pat_inlove</t>
+          <t>lichitacookies</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>shanerayehawkins</t>
+          <t>klwilkins</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ymkoether</t>
+          <t>leo.s_14</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>kemp_makayla</t>
+          <t>angelica_.mina</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>jimraybould</t>
+          <t>allinyanas</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>mal.makenna</t>
+          <t>isabel_petz</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>madelyn_wagner04</t>
+          <t>vickyy.duno</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>benitobox8</t>
+          <t>doodles9553</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>sgallun</t>
+          <t>ellianarose59</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>sky.younggg</t>
+          <t>alamorover</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>txgirl4life03</t>
+          <t>oscarcolchado_</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>jake_snider_12</t>
+          <t>samuelashley13</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>arya_k_456</t>
+          <t>amand_aemmaline</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>austin_boyle18</t>
+          <t>addiealmighty</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>rubymay597</t>
+          <t>cychavez17</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>_liliana_de_</t>
+          <t>_catherine_amalia</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>sami.tor.39</t>
+          <t>aduran2008</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>k_kkristin</t>
+          <t>misslennav_13</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>kylei.anne</t>
+          <t>iranly01</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sonoraday</t>
+          <t>vancitypena</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>kevinvonnacher</t>
+          <t>biancagarci.a</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>nique_gee</t>
+          <t>alexaace_</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ridgedaniel_</t>
+          <t>em.craven1</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>piozetas</t>
+          <t>andrewstucker24</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>lauren.cita_577</t>
+          <t>jennicaraeb</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>delta_becks</t>
+          <t>brianna.siddall</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>_avinour</t>
+          <t>calistatijmes</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>evebrogger</t>
+          <t>audreyreese_14</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>allinyanas</t>
+          <t>madi.perkinss</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>arianaaa400</t>
+          <t>lana.wynnn</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>_nelly.williams_</t>
+          <t>mwendakingdavid</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>dia_afghanx</t>
+          <t>malliebspikes</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>allenlettycater</t>
+          <t>glow_galveston</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>marki_was_here</t>
+          <t>amj.jacoby</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>spencerwagner_</t>
+          <t>dj.mata24</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>_sydslay</t>
+          <t>emmaeckelberg_</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>lifeinthebergenlane</t>
+          <t>rmaewalk</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>addison__gomez</t>
+          <t>bbryanna.lee</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>jeremy_macias16</t>
+          <t>sydbholland</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>kaoutherdh3</t>
+          <t>lyndee.lambert</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>julianasmart</t>
+          <t>jalen_bowers8</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>askua1750</t>
+          <t>rocrobison</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>maddie_.calhoun</t>
+          <t>ellaball131</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>jxhnner_32</t>
+          <t>shelby_len05</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>henry.smith.27</t>
+          <t>camillle_b</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>sydbholland</t>
+          <t>ale.vaz.gon97</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>allen_ferno</t>
+          <t>elak_9294</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>_brynnmorrison</t>
+          <t>hareshmenonn</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>mrs_may_may_</t>
+          <t>calin_ovi</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>jessica.c.nunnery</t>
+          <t>olivia.hagstrom</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>loser_12_</t>
+          <t>jennking.2019</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>vineyard.sarah</t>
+          <t>plugexclusive1</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>cooper_cannonn</t>
+          <t>kitsy1967</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>dakidyallleftout</t>
+          <t>shanegimble</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>jingchun347</t>
+          <t>ellaaagreen</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>bekah_cummings</t>
+          <t>kat_grabi</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>justaustin.s</t>
+          <t>_gavinbell</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>sethstotts777</t>
+          <t>brooklynsparkss</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>jackiee_pinkk</t>
+          <t>jasmesneto34</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>katherine.ato</t>
+          <t>spikeyfellow</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>anshikachourey</t>
+          <t>yoannnaudin</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>sireesha_p05</t>
+          <t>chanel_correa</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>jasminnee.8</t>
+          <t>james.schr05</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>_elizamills</t>
+          <t>olivia._.lesette</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>carlyyjordan</t>
+          <t>andy.mills.0917</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>tymashov_v</t>
+          <t>obi1kenobi13</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ethan_real6428</t>
+          <t>sofiehogann</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>gunnerslove02</t>
+          <t>sydneymessersmith_13</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>hayleyylucario</t>
+          <t>bigtime.bran</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>amryjk7</t>
+          <t>jake_snider_12</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>robert_cochrum</t>
+          <t>chloeec123</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>haley_pennock1</t>
+          <t>alexisrsandoval</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>madison._.mckinney</t>
+          <t>maciew022</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>n_vargas.04</t>
+          <t>marki_was_here</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>brooklynsparkss</t>
+          <t>allid_2ls</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>kate.anne.bryant</t>
+          <t>maddie_.calhoun</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>dleehy.17</t>
+          <t>ymkoether</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>dowerpowell</t>
+          <t>kfmfafaf</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>srt.slime422</t>
+          <t>sgallun</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>kehaan01</t>
+          <t>jes_sicaelsie</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>abbyy.llee</t>
+          <t>texasagr</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>brianna.siddall</t>
+          <t>huntholland3</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>aavery.deyoung</t>
+          <t>cassishwo</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>michaelrodzfinsta</t>
+          <t>chris777771</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>laurenbelk</t>
+          <t>they_hate_yari</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>kateejakoby</t>
+          <t>skidirt.irt</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>marifer.jacobo2</t>
+          <t>regan.16</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>tm_kavin</t>
+          <t>calmakins19_</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>nikki_t27</t>
+          <t>_robbinsbrock</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>riley_bohl3</t>
+          <t>benitobox8</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>dungadollar</t>
+          <t>_halle.grace_</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>thatguy_buben</t>
+          <t>nlorenzo2005</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>magenbrotemarkle</t>
+          <t>michellegriselldelgado</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ella.danica.05</t>
+          <t>nboy</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>sarahjpermenter</t>
+          <t>just.brookiee</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>lovelyleyda</t>
+          <t>simply_evern</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>sonelise_2</t>
+          <t>sydney.novelli</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>kaden4tamu</t>
+          <t>killingitwithkilgore</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>kay.dohhh</t>
+          <t>c_h10e04</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>elizabethmrob</t>
+          <t>the_goat_miracle_porter</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>alamorover</t>
+          <t>kyle_wolf04</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>margie_mae_hitt</t>
+          <t>mia.kloeber</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>hunter.jp05</t>
+          <t>_jessilynn711__</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>bushherd</t>
+          <t>abdullahmehmood._</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>tabithawilke</t>
+          <t>wowwwwwwwwwww728</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>annishpattani04</t>
+          <t>emil_ygrace02</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>peyton.presnall</t>
+          <t>coltonhuckabay05</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>banjo_chaps</t>
+          <t>chris.horstman</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>thibodauxtrey</t>
+          <t>raaedf40</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>nehakawane_28</t>
+          <t>excellent_writters1</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>nhesse_14</t>
+          <t>ashley.beth05</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>madeleine.meece</t>
+          <t>jacie_vaughan</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>lacey_thorpe</t>
+          <t>alexandramarie_11</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>arianab0623</t>
+          <t>rowan.rodriguez</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>josemateoordonez</t>
+          <t>emme__jordan</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>sowmith.b</t>
+          <t>champagnenathan2</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>mallorypayton_</t>
+          <t>calihindes</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>joannesdoering</t>
+          <t>kay_2115</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>beapea00</t>
+          <t>julia.g.marrow</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>blakebutcherr</t>
+          <t>petraz91</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>tamuartsci</t>
+          <t>vevo_dean</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,910 +4518,10 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>kate.balli</t>
+          <t>treywaller92</t>
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>th3kingk3nn3dy</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>lukeporter2004</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>tamistout</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>_elisacollins_</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>floreskadyn9</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>coleschieberle</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>_saddiebrenae</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>c_h10e04</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>vickyy.duno</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>kinleyrae1405</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>jfsalazarb</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>clayton_d27</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>emilyghullinger</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>janssen8031</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>caroline_behnke707</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>emma_ggcc</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>cadencelonggg</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>kenzieclaflin</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>deacon_cruz10</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>zachary_leaver</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>laurennclarkk_</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>masonbinz12</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>sydneylegg_</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>mariavictoriaariass</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>pattipc</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>jeana_cate_</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>jkcox1</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>acam20500</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>kenguyeny</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>marissacmorales</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>amy_rene_original_</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>sowmya.dondapati</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>grantmeansbusiness</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>itzury.xx</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>_lauren_teetes</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>diabetesdave23</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>ryleeddavis</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>rcburenheide</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>ellie_cummings27</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>soniaamirandaa_</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>pamelahughespak</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>andrewstucker24</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>cathycheatham</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>prichards974</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>kalpesh2409</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>cahughestx</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>gracenicole.h</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>camillle_b</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>nlorenzo2005</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>fitzzzywitzzzy</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>ashlyn.greer</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>rol_5_carmen_niemeyer</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>kristteennn</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>ashlynanejackson</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>drjulietfarmer</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>ale.vaz.gon97</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>obi1kenobi13</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>ashley.beth05</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>danna.pr</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>hannahxmcfarlane</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>abdullahmehmood._</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>ava.slocum</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>lori.moores</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>elizadchristian</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>em.craven1</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>stacywisner</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>artewb2</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>seth._.lucas</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>silviamartha1999</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>dazha.cooper</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>foodie_steph_123x</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>mason_zavodnyy</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>tnbhill1969</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>o.hous</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>cocoforcandypuffs</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>kenzie.balzen</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>josh_lamotte</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>lemen.taart</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>mimicardenas1769</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>jleigh_23</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>monica.thompson35537</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>pty_kenzie4</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>haythamelkour</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>kaayla_rrr</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>thomroyce2</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>miller_al505</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>brynn__leach</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>jewels610rn</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>jonesmaya11</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>veronicacastaneda754</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
         <v>0</v>
       </c>
     </row>
